--- a/auto/new_data/14_中國汽車銷量.xlsx
+++ b/auto/new_data/14_中國汽車銷量.xlsx
@@ -456,15 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2008-02</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>660000</v>
+        <v>1060000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24.71</t>
         </is>
       </c>
     </row>
@@ -474,15 +474,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2008-03</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1060000</v>
+        <v>920000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.71</t>
+          <t>13.58</t>
         </is>
       </c>
     </row>
@@ -492,15 +492,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2008-04</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>920000</v>
+        <v>840000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.58</t>
+          <t>18.31</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2008-05</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.31</t>
+          <t>15.07</t>
         </is>
       </c>
     </row>
@@ -528,15 +528,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2008-06</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>840000</v>
+        <v>670000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.07</t>
+          <t>4.69</t>
         </is>
       </c>
     </row>
@@ -546,15 +546,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2008-07</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>670000</v>
+        <v>630000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>-5.97</t>
         </is>
       </c>
     </row>
@@ -564,15 +564,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2008-08</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>630000</v>
+        <v>750000</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-5.97</t>
+          <t>-2.6</t>
         </is>
       </c>
     </row>
@@ -582,15 +582,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>750000</v>
+        <v>720000</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
@@ -600,15 +600,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2008-10</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>720000</v>
+        <v>690000</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>-13.75</t>
         </is>
       </c>
     </row>
@@ -618,15 +618,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2008-11</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>690000</v>
+        <v>740000</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-13.75</t>
+          <t>-11.9</t>
         </is>
       </c>
     </row>
@@ -636,15 +636,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2008-12</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>740000</v>
+        <v>735000</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-11.9</t>
+          <t>-14.53</t>
         </is>
       </c>
     </row>
@@ -654,15 +654,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2009-01</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>735000</v>
+        <v>828000</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-14.53</t>
+          <t>25.45</t>
         </is>
       </c>
     </row>
@@ -672,15 +672,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>828000</v>
+        <v>1110000</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25.45</t>
+          <t>4.72</t>
         </is>
       </c>
     </row>
@@ -690,15 +690,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2009-03</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1110000</v>
+        <v>1153000</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>25.33</t>
         </is>
       </c>
     </row>
@@ -708,15 +708,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1153000</v>
+        <v>1120000</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25.33</t>
+          <t>33.33</t>
         </is>
       </c>
     </row>
@@ -726,15 +726,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1120000</v>
+        <v>1142000</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>35.95</t>
         </is>
       </c>
     </row>
@@ -744,15 +744,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2009-06</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1142000</v>
+        <v>1085600</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>35.95</t>
+          <t>62.03</t>
         </is>
       </c>
     </row>
@@ -762,15 +762,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1085600</v>
+        <v>1138500</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>62.03</t>
+          <t>80.71</t>
         </is>
       </c>
     </row>
@@ -780,15 +780,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1138500</v>
+        <v>1331800</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>80.71</t>
+          <t>77.57</t>
         </is>
       </c>
     </row>
@@ -798,15 +798,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1331800</v>
+        <v>1226300</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>77.57</t>
+          <t>70.32</t>
         </is>
       </c>
     </row>
@@ -816,15 +816,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1226300</v>
+        <v>1337700</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>70.32</t>
+          <t>93.87</t>
         </is>
       </c>
     </row>
@@ -834,15 +834,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1337700</v>
+        <v>1413700</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>91.04</t>
         </is>
       </c>
     </row>
@@ -852,15 +852,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1413700</v>
+        <v>1664000</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -870,15 +870,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2010-01</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1664000</v>
+        <v>1234000</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>49.03</t>
         </is>
       </c>
     </row>
@@ -888,15 +888,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1234000</v>
+        <v>1735000</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>49.03</t>
+          <t>56.31</t>
         </is>
       </c>
     </row>
@@ -906,15 +906,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1735000</v>
+        <v>1555000</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>56.31</t>
+          <t>34.87</t>
         </is>
       </c>
     </row>
@@ -924,15 +924,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1555000</v>
+        <v>1438000</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>34.87</t>
+          <t>28.39</t>
         </is>
       </c>
     </row>
@@ -942,15 +942,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1438000</v>
+        <v>1412100</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28.39</t>
+          <t>23.65</t>
         </is>
       </c>
     </row>
@@ -960,15 +960,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1412100</v>
+        <v>1244000</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23.65</t>
+          <t>14.59</t>
         </is>
       </c>
     </row>
@@ -978,15 +978,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1244000</v>
+        <v>1322000</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14.59</t>
+          <t>16.12</t>
         </is>
       </c>
     </row>
@@ -996,15 +996,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1322000</v>
+        <v>1556700</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16.12</t>
+          <t>16.89</t>
         </is>
       </c>
     </row>
@@ -1014,15 +1014,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1556700</v>
+        <v>1538600</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>16.89</t>
+          <t>25.47</t>
         </is>
       </c>
     </row>
@@ -1032,15 +1032,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1538600</v>
+        <v>1967000</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>25.47</t>
+          <t>47.04</t>
         </is>
       </c>
     </row>
@@ -1050,15 +1050,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1967000</v>
+        <v>1666700</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>47.04</t>
+          <t>17.9</t>
         </is>
       </c>
     </row>
@@ -1068,15 +1068,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1666700</v>
+        <v>1894300</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17.9</t>
+          <t>13.84</t>
         </is>
       </c>
     </row>
@@ -1086,15 +1086,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1894300</v>
+        <v>1267000</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13.84</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -1104,15 +1104,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1267000</v>
+        <v>1828500</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>5.39</t>
         </is>
       </c>
     </row>
@@ -1122,15 +1122,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1828500</v>
+        <v>1552000</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>-0.19</t>
         </is>
       </c>
     </row>
@@ -1140,15 +1140,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1552000</v>
+        <v>1382800</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-3.84</t>
         </is>
       </c>
     </row>
@@ -1158,15 +1158,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1382800</v>
+        <v>1435900</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-3.84</t>
+          <t>1.69</t>
         </is>
       </c>
     </row>
@@ -1176,15 +1176,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1435900</v>
+        <v>1275300</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -1194,15 +1194,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1275300</v>
+        <v>1381100</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>4.47</t>
         </is>
       </c>
     </row>
@@ -1212,15 +1212,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1381100</v>
+        <v>1646100</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>5.74</t>
         </is>
       </c>
     </row>
@@ -1230,15 +1230,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1646100</v>
+        <v>1524822</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -1248,15 +1248,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1524822</v>
+        <v>1656000</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-15.81</t>
         </is>
       </c>
     </row>
@@ -1266,15 +1266,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1656000</v>
+        <v>1689600</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-15.81</t>
+          <t>1.37</t>
         </is>
       </c>
     </row>
@@ -1284,15 +1284,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1689600</v>
+        <v>1389800</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>-26.63</t>
         </is>
       </c>
     </row>
@@ -1302,15 +1302,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1389800</v>
+        <v>1213100</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-26.63</t>
+          <t>-4.25</t>
         </is>
       </c>
     </row>
@@ -1320,15 +1320,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1213100</v>
+        <v>1880600</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-4.25</t>
+          <t>2.85</t>
         </is>
       </c>
     </row>
@@ -1338,15 +1338,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1880600</v>
+        <v>1647600</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>6.16</t>
         </is>
       </c>
     </row>
@@ -1356,15 +1356,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1647600</v>
+        <v>1607200</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>16.23</t>
         </is>
       </c>
     </row>
@@ -1374,15 +1374,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1607200</v>
+        <v>1284175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>16.23</t>
+          <t>-10.57</t>
         </is>
       </c>
     </row>
@@ -1392,15 +1392,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1284175</v>
+        <v>1120206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-10.57</t>
+          <t>-12.16</t>
         </is>
       </c>
     </row>
@@ -1410,15 +1410,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1120206</v>
+        <v>1218884</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-12.16</t>
+          <t>-11.75</t>
         </is>
       </c>
     </row>
@@ -1428,15 +1428,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1218884</v>
+        <v>1617358</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-11.75</t>
+          <t>-1.75</t>
         </is>
       </c>
     </row>
@@ -1446,15 +1446,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1617358</v>
+        <v>1605980</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-1.75</t>
+          <t>5.32</t>
         </is>
       </c>
     </row>
@@ -1464,15 +1464,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1605980</v>
+        <v>1461303</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>-11.76</t>
         </is>
       </c>
     </row>
@@ -1482,15 +1482,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1461303</v>
+        <v>1462874</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-11.76</t>
+          <t>-13.42</t>
         </is>
       </c>
     </row>
@@ -1500,15 +1500,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1462874</v>
+        <v>1725525</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-13.42</t>
+          <t>24.16</t>
         </is>
       </c>
     </row>
@@ -1518,15 +1518,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2013-01</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1725525</v>
+        <v>1111892</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>-8.34</t>
         </is>
       </c>
     </row>
@@ -1536,15 +1536,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1111892</v>
+        <v>1585509</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-8.34</t>
+          <t>-15.69</t>
         </is>
       </c>
     </row>
@@ -1554,15 +1554,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1585509</v>
+        <v>1441441</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-15.69</t>
+          <t>-12.51</t>
         </is>
       </c>
     </row>
@@ -1572,15 +1572,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1441441</v>
+        <v>1396871</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-12.51</t>
+          <t>-13.09</t>
         </is>
       </c>
     </row>
@@ -1590,15 +1590,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1396871</v>
+        <v>1403453</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-13.09</t>
+          <t>9.29</t>
         </is>
       </c>
     </row>
@@ -1608,15 +1608,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1403453</v>
+        <v>1237596</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>10.48</t>
         </is>
       </c>
     </row>
@@ -1626,15 +1626,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1237596</v>
+        <v>1353235</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>11.02</t>
         </is>
       </c>
     </row>
@@ -1644,15 +1644,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1353235</v>
+        <v>1593512</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>-1.47</t>
         </is>
       </c>
     </row>
@@ -1662,15 +1662,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1593512</v>
+        <v>1605748</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>-0.01</t>
         </is>
       </c>
     </row>
@@ -1680,15 +1680,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1605748</v>
+        <v>1696278</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>16.08</t>
         </is>
       </c>
     </row>
@@ -1698,15 +1698,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1696278</v>
+        <v>1776937</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>16.08</t>
+          <t>21.47</t>
         </is>
       </c>
     </row>
@@ -1716,15 +1716,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1776937</v>
+        <v>1846846</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>7.03</t>
         </is>
       </c>
     </row>
@@ -1734,15 +1734,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1846846</v>
+        <v>1312197</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>18.01</t>
         </is>
       </c>
     </row>
@@ -1752,15 +1752,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1312197</v>
+        <v>1710067</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>7.86</t>
         </is>
       </c>
     </row>
@@ -1770,15 +1770,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1710067</v>
+        <v>1609035</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>11.63</t>
         </is>
       </c>
     </row>
@@ -1788,15 +1788,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1609035</v>
+        <v>1590354</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>11.63</t>
+          <t>13.85</t>
         </is>
       </c>
     </row>
@@ -1806,15 +1806,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1590354</v>
+        <v>1564117</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>13.85</t>
+          <t>11.45</t>
         </is>
       </c>
     </row>
@@ -1824,15 +1824,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1564117</v>
+        <v>1357948</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>9.72</t>
         </is>
       </c>
     </row>
@@ -1842,15 +1842,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1357948</v>
+        <v>1468166</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>8.49</t>
         </is>
       </c>
     </row>
@@ -1860,15 +1860,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1468166</v>
+        <v>1696001</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>6.43</t>
         </is>
       </c>
     </row>
@@ -1878,15 +1878,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1696001</v>
+        <v>1708861</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>6.42</t>
         </is>
       </c>
     </row>
@@ -1896,15 +1896,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1708861</v>
+        <v>1775320</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>4.66</t>
         </is>
       </c>
     </row>
@@ -1914,15 +1914,15 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1775320</v>
+        <v>2061044</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>15.99</t>
         </is>
       </c>
     </row>
@@ -1932,15 +1932,15 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2061044</v>
+        <v>2038003</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>15.99</t>
+          <t>10.35</t>
         </is>
       </c>
     </row>
@@ -1950,15 +1950,15 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2038003</v>
+        <v>1396733</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>6.44</t>
         </is>
       </c>
     </row>
@@ -1968,15 +1968,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1396733</v>
+        <v>1870357</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>9.37</t>
         </is>
       </c>
     </row>
@@ -1986,15 +1986,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1870357</v>
+        <v>1668824</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>3.72</t>
         </is>
       </c>
     </row>
@@ -2004,15 +2004,15 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1668824</v>
+        <v>1609274</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>1.19</t>
         </is>
       </c>
     </row>
@@ -2022,15 +2022,15 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1609274</v>
+        <v>1511439</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>-3.37</t>
         </is>
       </c>
     </row>
@@ -2040,15 +2040,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1511439</v>
+        <v>1268597</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-3.37</t>
+          <t>-6.58</t>
         </is>
       </c>
     </row>
@@ -2058,15 +2058,15 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1268597</v>
+        <v>1418462</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-6.58</t>
+          <t>-3.39</t>
         </is>
       </c>
     </row>
@@ -2076,15 +2076,15 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1418462</v>
+        <v>1751215</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-3.39</t>
+          <t>3.26</t>
         </is>
       </c>
     </row>
@@ -2094,15 +2094,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1751215</v>
+        <v>1936875</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>13.34</t>
         </is>
       </c>
     </row>
@@ -2112,15 +2112,15 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1936875</v>
+        <v>2196773</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>13.34</t>
+          <t>23.74</t>
         </is>
       </c>
     </row>
@@ -2130,15 +2130,15 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2196773</v>
+        <v>2442126</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>23.74</t>
+          <t>18.49</t>
         </is>
       </c>
     </row>
@@ -2148,15 +2148,15 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2442126</v>
+        <v>2228705</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>18.49</t>
+          <t>9.36</t>
         </is>
       </c>
     </row>
@@ -2166,15 +2166,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2228705</v>
+        <v>1376681</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>-1.44</t>
         </is>
       </c>
     </row>
@@ -2184,15 +2184,15 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1376681</v>
+        <v>2055706</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>9.91</t>
         </is>
       </c>
     </row>
@@ -2202,15 +2202,15 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2055706</v>
+        <v>1779130</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>6.61</t>
         </is>
       </c>
     </row>
@@ -2220,15 +2220,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1779130</v>
+        <v>1793035</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>11.42</t>
         </is>
       </c>
     </row>
@@ -2238,15 +2238,15 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1793035</v>
+        <v>1784053</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>18.04</t>
         </is>
       </c>
     </row>
@@ -2256,15 +2256,15 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1784053</v>
+        <v>1604530</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>18.04</t>
+          <t>26.48</t>
         </is>
       </c>
     </row>
@@ -2274,15 +2274,15 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1604530</v>
+        <v>1795512</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>26.48</t>
+          <t>26.58</t>
         </is>
       </c>
     </row>
@@ -2292,15 +2292,15 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1795512</v>
+        <v>2268338</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>26.58</t>
+          <t>29.53</t>
         </is>
       </c>
     </row>
@@ -2310,15 +2310,15 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2268338</v>
+        <v>2344128</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>21.03</t>
         </is>
       </c>
     </row>
@@ -2328,15 +2328,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2344128</v>
+        <v>2590157</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>17.91</t>
         </is>
       </c>
     </row>
@@ -2346,15 +2346,15 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2590157</v>
+        <v>2672264</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>17.91</t>
+          <t>9.42</t>
         </is>
       </c>
     </row>
@@ -2364,15 +2364,15 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2672264</v>
+        <v>2218215</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>-0.47</t>
         </is>
       </c>
     </row>
@@ -2382,15 +2382,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2218215</v>
+        <v>1632748</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>18.6</t>
         </is>
       </c>
     </row>
@@ -2400,15 +2400,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1632748</v>
+        <v>2096286</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>18.6</t>
+          <t>1.97</t>
         </is>
       </c>
     </row>
@@ -2418,15 +2418,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2096286</v>
+        <v>1722243</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-3.2</t>
         </is>
       </c>
     </row>
@@ -2436,15 +2436,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1722243</v>
+        <v>1751294</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-2.33</t>
         </is>
       </c>
     </row>
@@ -2454,15 +2454,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1751294</v>
+        <v>1831847</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-2.33</t>
+          <t>2.68</t>
         </is>
       </c>
     </row>
@@ -2472,15 +2472,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1831847</v>
+        <v>1678433</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>4.61</t>
         </is>
       </c>
     </row>
@@ -2490,15 +2490,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1678433</v>
+        <v>1875193</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.44</t>
         </is>
       </c>
     </row>
@@ -2508,15 +2508,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1875193</v>
+        <v>2342567</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.27</t>
         </is>
       </c>
     </row>
@@ -2526,15 +2526,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2342567</v>
+        <v>2352462</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>0.36</t>
         </is>
       </c>
     </row>
@@ -2544,15 +2544,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2352462</v>
+        <v>2589477</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>-0.03</t>
         </is>
       </c>
     </row>
@@ -2562,15 +2562,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2589477</v>
+        <v>2653255</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.71</t>
         </is>
       </c>
     </row>
@@ -2580,15 +2580,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2653255</v>
+        <v>2456157</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>10.73</t>
         </is>
       </c>
     </row>
@@ -2598,15 +2598,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2456157</v>
+        <v>1475512</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>10.73</t>
+          <t>-9.63</t>
         </is>
       </c>
     </row>
@@ -2616,15 +2616,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1475512</v>
+        <v>2168570</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-9.63</t>
+          <t>3.45</t>
         </is>
       </c>
     </row>
@@ -2634,15 +2634,15 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2168570</v>
+        <v>1914369</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>11.16</t>
         </is>
       </c>
     </row>
@@ -2652,15 +2652,15 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1914369</v>
+        <v>1889414</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>11.16</t>
+          <t>7.89</t>
         </is>
       </c>
     </row>
@@ -2670,15 +2670,15 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1889414</v>
+        <v>1874181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>2.31</t>
         </is>
       </c>
     </row>
@@ -2688,15 +2688,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1874181</v>
+        <v>1589544</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>-5.3</t>
         </is>
       </c>
     </row>
@@ -2706,15 +2706,15 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1589544</v>
+        <v>1789871</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-4.55</t>
         </is>
       </c>
     </row>
@@ -2724,15 +2724,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1789871</v>
+        <v>2060478</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-4.55</t>
+          <t>-12.04</t>
         </is>
       </c>
     </row>
@@ -2742,15 +2742,15 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2060478</v>
+        <v>2046840</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-12.04</t>
+          <t>-12.99</t>
         </is>
       </c>
     </row>
@@ -2760,15 +2760,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2046840</v>
+        <v>2173485</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-12.99</t>
+          <t>-16.06</t>
         </is>
       </c>
     </row>
@@ -2778,15 +2778,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2173485</v>
+        <v>2233108</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-16.06</t>
+          <t>-15.84</t>
         </is>
       </c>
     </row>
@@ -2796,15 +2796,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2233108</v>
+        <v>2021089</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-15.84</t>
+          <t>-17.71</t>
         </is>
       </c>
     </row>
@@ -2814,15 +2814,15 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2021089</v>
+        <v>1219497</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-17.71</t>
+          <t>-17.35</t>
         </is>
       </c>
     </row>
@@ -2832,15 +2832,15 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1219497</v>
+        <v>2019443</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-17.35</t>
+          <t>-6.88</t>
         </is>
       </c>
     </row>
@@ -2850,15 +2850,15 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2019443</v>
+        <v>1574877</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-6.88</t>
+          <t>-17.73</t>
         </is>
       </c>
     </row>
@@ -2868,15 +2868,15 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1574877</v>
+        <v>1561172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-17.73</t>
+          <t>-17.37</t>
         </is>
       </c>
     </row>
@@ -2886,15 +2886,15 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1561172</v>
+        <v>1727910</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-17.37</t>
+          <t>-7.8</t>
         </is>
       </c>
     </row>
@@ -2904,15 +2904,15 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1727910</v>
+        <v>1527912</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-7.8</t>
+          <t>-3.88</t>
         </is>
       </c>
     </row>
@@ -2922,15 +2922,15 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1527912</v>
+        <v>1652908</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-3.88</t>
+          <t>-7.65</t>
         </is>
       </c>
     </row>
@@ -2940,15 +2940,15 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1652908</v>
+        <v>1930637</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-7.65</t>
+          <t>-6.3</t>
         </is>
       </c>
     </row>
@@ -2958,15 +2958,15 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1930637</v>
+        <v>1927669</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-6.3</t>
+          <t>-5.82</t>
         </is>
       </c>
     </row>
@@ -2976,15 +2976,15 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1927669</v>
+        <v>2056669</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-5.82</t>
+          <t>-5.37</t>
         </is>
       </c>
     </row>
@@ -2994,15 +2994,15 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2056669</v>
+        <v>2213089</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-5.37</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -3012,15 +3012,15 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2213089</v>
+        <v>1696520</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-16.06</t>
         </is>
       </c>
     </row>
@@ -3030,15 +3030,15 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1696520</v>
+        <v>216481</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-16.06</t>
+          <t>-82.25</t>
         </is>
       </c>
     </row>
@@ -3048,15 +3048,15 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>216481</v>
+        <v>1039532</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-82.25</t>
+          <t>-48.52</t>
         </is>
       </c>
     </row>
@@ -3066,15 +3066,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1039532</v>
+        <v>1536600</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-48.52</t>
+          <t>-2.43</t>
         </is>
       </c>
     </row>
@@ -3084,15 +3084,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1536600</v>
+        <v>1673900</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-2.43</t>
+          <t>7.22</t>
         </is>
       </c>
     </row>
@@ -3102,15 +3102,15 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1673900</v>
+        <v>1720593</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>-0.42</t>
         </is>
       </c>
     </row>
@@ -3120,15 +3120,15 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1720593</v>
+        <v>1664826</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>8.96</t>
         </is>
       </c>
     </row>
@@ -3138,15 +3138,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1664826</v>
+        <v>1754600</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>6.15</t>
         </is>
       </c>
     </row>
@@ -3156,15 +3156,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1754600</v>
+        <v>2075889</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>7.52</t>
         </is>
       </c>
     </row>
@@ -3174,15 +3174,15 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2075889</v>
+        <v>2300447</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>19.34</t>
         </is>
       </c>
     </row>
@@ -3192,15 +3192,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2300447</v>
+        <v>2098448</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>19.34</t>
+          <t>2.03</t>
         </is>
       </c>
     </row>
@@ -3210,15 +3210,15 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2098448</v>
+        <v>2285751</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -3228,15 +3228,15 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2285751</v>
+        <v>2358372</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>39.01</t>
         </is>
       </c>
     </row>
@@ -3246,15 +3246,15 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2358372</v>
+        <v>1148130</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>39.01</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -3264,15 +3264,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1148130</v>
+        <v>1914414</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>84.16</t>
         </is>
       </c>
     </row>
@@ -3282,15 +3282,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1914414</v>
+        <v>1746754</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>84.16</t>
+          <t>13.68</t>
         </is>
       </c>
     </row>
@@ -3300,15 +3300,15 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1746754</v>
+        <v>1642018</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>13.68</t>
+          <t>-1.9</t>
         </is>
       </c>
     </row>
@@ -3318,15 +3318,15 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1642018</v>
+        <v>1553528</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-9.71</t>
         </is>
       </c>
     </row>
@@ -3336,15 +3336,15 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1553528</v>
+        <v>1543474</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-9.71</t>
+          <t>-7.29</t>
         </is>
       </c>
     </row>
@@ -3354,15 +3354,15 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1543474</v>
+        <v>1543903</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-7.29</t>
+          <t>-12.01</t>
         </is>
       </c>
     </row>
@@ -3372,15 +3372,15 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1543903</v>
+        <v>1737510</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-12.01</t>
+          <t>-16.3</t>
         </is>
       </c>
     </row>
@@ -3390,15 +3390,15 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1737510</v>
+        <v>1990339</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-16.3</t>
+          <t>-13.48</t>
         </is>
       </c>
     </row>
@@ -3408,15 +3408,15 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1990339</v>
+        <v>2175564</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-13.48</t>
+          <t>3.67</t>
         </is>
       </c>
     </row>
@@ -3426,15 +3426,15 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2175564</v>
+        <v>2398523</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.93</t>
         </is>
       </c>
     </row>
@@ -3444,15 +3444,15 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2398523</v>
+        <v>2140050</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>-9.26</t>
         </is>
       </c>
     </row>
@@ -3462,15 +3462,15 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2140050</v>
+        <v>1451381</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-9.26</t>
+          <t>26.41</t>
         </is>
       </c>
     </row>
@@ -3480,15 +3480,15 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1451381</v>
+        <v>1819813</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>-4.94</t>
         </is>
       </c>
     </row>
@@ -3498,15 +3498,15 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1819813</v>
+        <v>942539</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-4.94</t>
+          <t>-46.04</t>
         </is>
       </c>
     </row>
@@ -3516,15 +3516,15 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>942539</v>
+        <v>1577056</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-46.04</t>
+          <t>-3.96</t>
         </is>
       </c>
     </row>
@@ -3534,15 +3534,15 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1577056</v>
+        <v>2165958</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-3.96</t>
+          <t>39.42</t>
         </is>
       </c>
     </row>
@@ -3552,15 +3552,15 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2165958</v>
+        <v>2125896</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>39.42</t>
+          <t>37.73</t>
         </is>
       </c>
     </row>
@@ -3570,15 +3570,15 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2125896</v>
+        <v>2219832</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>37.73</t>
+          <t>43.78</t>
         </is>
       </c>
     </row>
@@ -3588,15 +3588,15 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2219832</v>
+        <v>2275494</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>43.78</t>
+          <t>30.96</t>
         </is>
       </c>
     </row>
@@ -3606,15 +3606,15 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2275494</v>
+        <v>2172374</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>9.15</t>
         </is>
       </c>
     </row>
@@ -3624,15 +3624,15 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2172374</v>
+        <v>2007402</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>-7.73</t>
         </is>
       </c>
     </row>
@@ -3642,15 +3642,15 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2007402</v>
+        <v>2190865</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-7.73</t>
+          <t>-8.66</t>
         </is>
       </c>
     </row>
@@ -3660,15 +3660,15 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2190865</v>
+        <v>1295097</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-8.66</t>
+          <t>-39.48</t>
         </is>
       </c>
     </row>
@@ -3678,15 +3678,15 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1295097</v>
+        <v>1396501</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-39.48</t>
+          <t>-3.78</t>
         </is>
       </c>
     </row>
@@ -3696,15 +3696,15 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1396501</v>
+        <v>1593454</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-12.44</t>
         </is>
       </c>
     </row>
@@ -3714,15 +3714,15 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1593454</v>
+        <v>1635995</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-12.44</t>
+          <t>73.57</t>
         </is>
       </c>
     </row>
@@ -3732,15 +3732,15 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1635995</v>
+        <v>1685966</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>73.57</t>
+          <t>6.91</t>
         </is>
       </c>
     </row>
@@ -3750,15 +3750,15 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1685966</v>
+        <v>1894250</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>-12.54</t>
         </is>
       </c>
     </row>
@@ -3768,15 +3768,15 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1894250</v>
+        <v>1781580</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-12.54</t>
+          <t>-16.2</t>
         </is>
       </c>
     </row>
@@ -3786,15 +3786,15 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1781580</v>
+        <v>1922495</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-16.2</t>
+          <t>-13.39</t>
         </is>
       </c>
     </row>
@@ -3804,15 +3804,15 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1922495</v>
+        <v>2019445</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-13.39</t>
+          <t>-11.25</t>
         </is>
       </c>
     </row>
@@ -3822,15 +3822,15 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2019445</v>
+        <v>2032470</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-11.25</t>
+          <t>-6.44</t>
         </is>
       </c>
     </row>
@@ -3840,15 +3840,15 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2032470</v>
+        <v>2077155</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-6.44</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -3858,15 +3858,15 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2077155</v>
+        <v>2360143</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>7.73</t>
         </is>
       </c>
     </row>
@@ -3876,15 +3876,15 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2360143</v>
+        <v>2034527</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>57.09</t>
         </is>
       </c>
     </row>
@@ -3894,15 +3894,15 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>2034527</v>
+        <v>1111541</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>57.09</t>
+          <t>-20.41</t>
         </is>
       </c>
     </row>
@@ -3912,15 +3912,15 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1111541</v>
+        <v>1691118</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-20.41</t>
+          <t>6.13</t>
         </is>
       </c>
     </row>
@@ -3930,15 +3930,15 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1691118</v>
+        <v>1541842</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>-5.76</t>
         </is>
       </c>
     </row>
@@ -3948,15 +3948,15 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1541842</v>
+        <v>1716443</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-5.76</t>
+          <t>1.81</t>
         </is>
       </c>
     </row>
@@ -3966,15 +3966,15 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1716443</v>
+        <v>1769462</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>-6.59</t>
         </is>
       </c>
     </row>
@@ -3984,15 +3984,15 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1769462</v>
+        <v>1725174</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-6.59</t>
+          <t>-3.17</t>
         </is>
       </c>
     </row>
@@ -4002,15 +4002,15 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1725174</v>
+        <v>1913002</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-3.17</t>
+          <t>-0.49</t>
         </is>
       </c>
     </row>
@@ -4020,15 +4020,15 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1913002</v>
+        <v>2116925</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>4.83</t>
         </is>
       </c>
     </row>
@@ -4038,15 +4038,15 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2116925</v>
+        <v>2271670</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>11.77</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/14_中國汽車銷量.xlsx
+++ b/auto/new_data/14_中國汽車銷量.xlsx
@@ -456,15 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2008-03</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1060000</v>
+        <v>920000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.71</t>
+          <t>13.58</t>
         </is>
       </c>
     </row>
@@ -474,15 +474,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2008-04</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>920000</v>
+        <v>840000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.58</t>
+          <t>18.31</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2008-05</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.31</t>
+          <t>15.07</t>
         </is>
       </c>
     </row>
@@ -510,15 +510,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2008-06</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>840000</v>
+        <v>670000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.07</t>
+          <t>4.69</t>
         </is>
       </c>
     </row>
@@ -528,15 +528,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2008-07</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>670000</v>
+        <v>630000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>-5.97</t>
         </is>
       </c>
     </row>
@@ -546,15 +546,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2008-08</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>630000</v>
+        <v>750000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-5.97</t>
+          <t>-2.6</t>
         </is>
       </c>
     </row>
@@ -564,15 +564,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>750000</v>
+        <v>720000</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
@@ -582,15 +582,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2008-10</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>720000</v>
+        <v>690000</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>-13.75</t>
         </is>
       </c>
     </row>
@@ -600,15 +600,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2008-11</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>690000</v>
+        <v>740000</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-13.75</t>
+          <t>-11.9</t>
         </is>
       </c>
     </row>
@@ -618,15 +618,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2008-12</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>740000</v>
+        <v>735000</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-11.9</t>
+          <t>-14.53</t>
         </is>
       </c>
     </row>
@@ -636,15 +636,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2009-01</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>735000</v>
+        <v>828000</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-14.53</t>
+          <t>25.45</t>
         </is>
       </c>
     </row>
@@ -654,15 +654,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>828000</v>
+        <v>1110000</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25.45</t>
+          <t>4.72</t>
         </is>
       </c>
     </row>
@@ -672,15 +672,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2009-03</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1110000</v>
+        <v>1153000</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>25.33</t>
         </is>
       </c>
     </row>
@@ -690,15 +690,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1153000</v>
+        <v>1120000</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25.33</t>
+          <t>33.33</t>
         </is>
       </c>
     </row>
@@ -708,15 +708,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1120000</v>
+        <v>1142000</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>35.95</t>
         </is>
       </c>
     </row>
@@ -726,15 +726,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2009-06</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1142000</v>
+        <v>1085600</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>35.95</t>
+          <t>62.03</t>
         </is>
       </c>
     </row>
@@ -744,15 +744,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1085600</v>
+        <v>1138500</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>62.03</t>
+          <t>80.71</t>
         </is>
       </c>
     </row>
@@ -762,15 +762,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1138500</v>
+        <v>1331800</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>80.71</t>
+          <t>77.57</t>
         </is>
       </c>
     </row>
@@ -780,15 +780,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1331800</v>
+        <v>1226300</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>77.57</t>
+          <t>70.32</t>
         </is>
       </c>
     </row>
@@ -798,15 +798,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1226300</v>
+        <v>1337700</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>70.32</t>
+          <t>93.87</t>
         </is>
       </c>
     </row>
@@ -816,15 +816,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1337700</v>
+        <v>1413700</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>91.04</t>
         </is>
       </c>
     </row>
@@ -834,15 +834,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1413700</v>
+        <v>1664000</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -852,15 +852,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2010-01</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1664000</v>
+        <v>1234000</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>49.03</t>
         </is>
       </c>
     </row>
@@ -870,15 +870,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1234000</v>
+        <v>1735000</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>49.03</t>
+          <t>56.31</t>
         </is>
       </c>
     </row>
@@ -888,15 +888,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1735000</v>
+        <v>1555000</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>56.31</t>
+          <t>34.87</t>
         </is>
       </c>
     </row>
@@ -906,15 +906,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1555000</v>
+        <v>1438000</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>34.87</t>
+          <t>28.39</t>
         </is>
       </c>
     </row>
@@ -924,15 +924,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1438000</v>
+        <v>1412100</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>28.39</t>
+          <t>23.65</t>
         </is>
       </c>
     </row>
@@ -942,15 +942,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1412100</v>
+        <v>1244000</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23.65</t>
+          <t>14.59</t>
         </is>
       </c>
     </row>
@@ -960,15 +960,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1244000</v>
+        <v>1322000</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14.59</t>
+          <t>16.12</t>
         </is>
       </c>
     </row>
@@ -978,15 +978,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1322000</v>
+        <v>1556700</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>16.12</t>
+          <t>16.89</t>
         </is>
       </c>
     </row>
@@ -996,15 +996,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1556700</v>
+        <v>1538600</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16.89</t>
+          <t>25.47</t>
         </is>
       </c>
     </row>
@@ -1014,15 +1014,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1538600</v>
+        <v>1967000</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>25.47</t>
+          <t>47.04</t>
         </is>
       </c>
     </row>
@@ -1032,15 +1032,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1967000</v>
+        <v>1666700</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>47.04</t>
+          <t>17.9</t>
         </is>
       </c>
     </row>
@@ -1050,15 +1050,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1666700</v>
+        <v>1894300</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>17.9</t>
+          <t>13.84</t>
         </is>
       </c>
     </row>
@@ -1068,15 +1068,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1894300</v>
+        <v>1267000</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13.84</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -1086,15 +1086,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1267000</v>
+        <v>1828500</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>5.39</t>
         </is>
       </c>
     </row>
@@ -1104,15 +1104,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1828500</v>
+        <v>1552000</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>-0.19</t>
         </is>
       </c>
     </row>
@@ -1122,15 +1122,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1552000</v>
+        <v>1382800</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-3.84</t>
         </is>
       </c>
     </row>
@@ -1140,15 +1140,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1382800</v>
+        <v>1435900</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-3.84</t>
+          <t>1.69</t>
         </is>
       </c>
     </row>
@@ -1158,15 +1158,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1435900</v>
+        <v>1275300</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -1176,15 +1176,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1275300</v>
+        <v>1381100</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>4.47</t>
         </is>
       </c>
     </row>
@@ -1194,15 +1194,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1381100</v>
+        <v>1646100</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>5.74</t>
         </is>
       </c>
     </row>
@@ -1212,15 +1212,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1646100</v>
+        <v>1524822</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -1230,15 +1230,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1524822</v>
+        <v>1656000</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-15.81</t>
         </is>
       </c>
     </row>
@@ -1248,15 +1248,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1656000</v>
+        <v>1689600</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-15.81</t>
+          <t>1.37</t>
         </is>
       </c>
     </row>
@@ -1266,15 +1266,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1689600</v>
+        <v>1389800</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>-26.63</t>
         </is>
       </c>
     </row>
@@ -1284,15 +1284,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1389800</v>
+        <v>1213100</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-26.63</t>
+          <t>-4.25</t>
         </is>
       </c>
     </row>
@@ -1302,15 +1302,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1213100</v>
+        <v>1880600</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-4.25</t>
+          <t>2.85</t>
         </is>
       </c>
     </row>
@@ -1320,15 +1320,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1880600</v>
+        <v>1647600</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>6.16</t>
         </is>
       </c>
     </row>
@@ -1338,15 +1338,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1647600</v>
+        <v>1607200</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>16.23</t>
         </is>
       </c>
     </row>
@@ -1356,15 +1356,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1607200</v>
+        <v>1284175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>16.23</t>
+          <t>-10.57</t>
         </is>
       </c>
     </row>
@@ -1374,15 +1374,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1284175</v>
+        <v>1120206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-10.57</t>
+          <t>-12.16</t>
         </is>
       </c>
     </row>
@@ -1392,15 +1392,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1120206</v>
+        <v>1218884</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-12.16</t>
+          <t>-11.75</t>
         </is>
       </c>
     </row>
@@ -1410,15 +1410,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1218884</v>
+        <v>1617358</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-11.75</t>
+          <t>-1.75</t>
         </is>
       </c>
     </row>
@@ -1428,15 +1428,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1617358</v>
+        <v>1605980</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-1.75</t>
+          <t>5.32</t>
         </is>
       </c>
     </row>
@@ -1446,15 +1446,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1605980</v>
+        <v>1461303</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>-11.76</t>
         </is>
       </c>
     </row>
@@ -1464,15 +1464,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1461303</v>
+        <v>1462874</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-11.76</t>
+          <t>-13.42</t>
         </is>
       </c>
     </row>
@@ -1482,15 +1482,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1462874</v>
+        <v>1725525</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-13.42</t>
+          <t>24.16</t>
         </is>
       </c>
     </row>
@@ -1500,15 +1500,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2013-01</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1725525</v>
+        <v>1111892</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>-8.34</t>
         </is>
       </c>
     </row>
@@ -1518,15 +1518,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1111892</v>
+        <v>1585509</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-8.34</t>
+          <t>-15.69</t>
         </is>
       </c>
     </row>
@@ -1536,15 +1536,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1585509</v>
+        <v>1441441</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-15.69</t>
+          <t>-12.51</t>
         </is>
       </c>
     </row>
@@ -1554,15 +1554,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1441441</v>
+        <v>1396871</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-12.51</t>
+          <t>-13.09</t>
         </is>
       </c>
     </row>
@@ -1572,15 +1572,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1396871</v>
+        <v>1403453</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-13.09</t>
+          <t>9.29</t>
         </is>
       </c>
     </row>
@@ -1590,15 +1590,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1403453</v>
+        <v>1237596</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>10.48</t>
         </is>
       </c>
     </row>
@@ -1608,15 +1608,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1237596</v>
+        <v>1353235</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>11.02</t>
         </is>
       </c>
     </row>
@@ -1626,15 +1626,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1353235</v>
+        <v>1593512</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>-1.47</t>
         </is>
       </c>
     </row>
@@ -1644,15 +1644,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1593512</v>
+        <v>1605748</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>-0.01</t>
         </is>
       </c>
     </row>
@@ -1662,15 +1662,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1605748</v>
+        <v>1696278</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>16.08</t>
         </is>
       </c>
     </row>
@@ -1680,15 +1680,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1696278</v>
+        <v>1776937</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>16.08</t>
+          <t>21.47</t>
         </is>
       </c>
     </row>
@@ -1698,15 +1698,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1776937</v>
+        <v>1846846</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>7.03</t>
         </is>
       </c>
     </row>
@@ -1716,15 +1716,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1846846</v>
+        <v>1312197</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>18.01</t>
         </is>
       </c>
     </row>
@@ -1734,15 +1734,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1312197</v>
+        <v>1710067</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>7.86</t>
         </is>
       </c>
     </row>
@@ -1752,15 +1752,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1710067</v>
+        <v>1609035</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>11.63</t>
         </is>
       </c>
     </row>
@@ -1770,15 +1770,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1609035</v>
+        <v>1590354</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>11.63</t>
+          <t>13.85</t>
         </is>
       </c>
     </row>
@@ -1788,15 +1788,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1590354</v>
+        <v>1564117</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>13.85</t>
+          <t>11.45</t>
         </is>
       </c>
     </row>
@@ -1806,15 +1806,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1564117</v>
+        <v>1357948</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>9.72</t>
         </is>
       </c>
     </row>
@@ -1824,15 +1824,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1357948</v>
+        <v>1468166</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>8.49</t>
         </is>
       </c>
     </row>
@@ -1842,15 +1842,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1468166</v>
+        <v>1696001</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>6.43</t>
         </is>
       </c>
     </row>
@@ -1860,15 +1860,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1696001</v>
+        <v>1708861</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>6.42</t>
         </is>
       </c>
     </row>
@@ -1878,15 +1878,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1708861</v>
+        <v>1775320</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>4.66</t>
         </is>
       </c>
     </row>
@@ -1896,15 +1896,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1775320</v>
+        <v>2061044</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>15.99</t>
         </is>
       </c>
     </row>
@@ -1914,15 +1914,15 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2061044</v>
+        <v>2038003</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>15.99</t>
+          <t>10.35</t>
         </is>
       </c>
     </row>
@@ -1932,15 +1932,15 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2038003</v>
+        <v>1396733</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>6.44</t>
         </is>
       </c>
     </row>
@@ -1950,15 +1950,15 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1396733</v>
+        <v>1870357</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>9.37</t>
         </is>
       </c>
     </row>
@@ -1968,15 +1968,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1870357</v>
+        <v>1668824</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>3.72</t>
         </is>
       </c>
     </row>
@@ -1986,15 +1986,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1668824</v>
+        <v>1609274</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>1.19</t>
         </is>
       </c>
     </row>
@@ -2004,15 +2004,15 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1609274</v>
+        <v>1511439</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>-3.37</t>
         </is>
       </c>
     </row>
@@ -2022,15 +2022,15 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1511439</v>
+        <v>1268597</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-3.37</t>
+          <t>-6.58</t>
         </is>
       </c>
     </row>
@@ -2040,15 +2040,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1268597</v>
+        <v>1418462</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-6.58</t>
+          <t>-3.39</t>
         </is>
       </c>
     </row>
@@ -2058,15 +2058,15 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1418462</v>
+        <v>1751215</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-3.39</t>
+          <t>3.26</t>
         </is>
       </c>
     </row>
@@ -2076,15 +2076,15 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1751215</v>
+        <v>1936875</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>13.34</t>
         </is>
       </c>
     </row>
@@ -2094,15 +2094,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1936875</v>
+        <v>2196773</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>13.34</t>
+          <t>23.74</t>
         </is>
       </c>
     </row>
@@ -2112,15 +2112,15 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2196773</v>
+        <v>2442126</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>23.74</t>
+          <t>18.49</t>
         </is>
       </c>
     </row>
@@ -2130,15 +2130,15 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2442126</v>
+        <v>2228705</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>18.49</t>
+          <t>9.36</t>
         </is>
       </c>
     </row>
@@ -2148,15 +2148,15 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2228705</v>
+        <v>1376681</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>-1.44</t>
         </is>
       </c>
     </row>
@@ -2166,15 +2166,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1376681</v>
+        <v>2055706</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>9.91</t>
         </is>
       </c>
     </row>
@@ -2184,15 +2184,15 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2055706</v>
+        <v>1779130</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>6.61</t>
         </is>
       </c>
     </row>
@@ -2202,15 +2202,15 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1779130</v>
+        <v>1793035</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>11.42</t>
         </is>
       </c>
     </row>
@@ -2220,15 +2220,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1793035</v>
+        <v>1784053</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>18.04</t>
         </is>
       </c>
     </row>
@@ -2238,15 +2238,15 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1784053</v>
+        <v>1604530</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>18.04</t>
+          <t>26.48</t>
         </is>
       </c>
     </row>
@@ -2256,15 +2256,15 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1604530</v>
+        <v>1795512</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>26.48</t>
+          <t>26.58</t>
         </is>
       </c>
     </row>
@@ -2274,15 +2274,15 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1795512</v>
+        <v>2268338</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>26.58</t>
+          <t>29.53</t>
         </is>
       </c>
     </row>
@@ -2292,15 +2292,15 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2268338</v>
+        <v>2344128</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>21.03</t>
         </is>
       </c>
     </row>
@@ -2310,15 +2310,15 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2344128</v>
+        <v>2590157</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>17.91</t>
         </is>
       </c>
     </row>
@@ -2328,15 +2328,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2590157</v>
+        <v>2672264</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>17.91</t>
+          <t>9.42</t>
         </is>
       </c>
     </row>
@@ -2346,15 +2346,15 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2672264</v>
+        <v>2218215</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>-0.47</t>
         </is>
       </c>
     </row>
@@ -2364,15 +2364,15 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2218215</v>
+        <v>1632748</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>18.6</t>
         </is>
       </c>
     </row>
@@ -2382,15 +2382,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1632748</v>
+        <v>2096286</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>18.6</t>
+          <t>1.97</t>
         </is>
       </c>
     </row>
@@ -2400,15 +2400,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2096286</v>
+        <v>1722243</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-3.2</t>
         </is>
       </c>
     </row>
@@ -2418,15 +2418,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1722243</v>
+        <v>1751294</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-2.33</t>
         </is>
       </c>
     </row>
@@ -2436,15 +2436,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1751294</v>
+        <v>1831847</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-2.33</t>
+          <t>2.68</t>
         </is>
       </c>
     </row>
@@ -2454,15 +2454,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1831847</v>
+        <v>1678433</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>4.61</t>
         </is>
       </c>
     </row>
@@ -2472,15 +2472,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1678433</v>
+        <v>1875193</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.44</t>
         </is>
       </c>
     </row>
@@ -2490,15 +2490,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1875193</v>
+        <v>2342567</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.27</t>
         </is>
       </c>
     </row>
@@ -2508,15 +2508,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2342567</v>
+        <v>2352462</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>0.36</t>
         </is>
       </c>
     </row>
@@ -2526,15 +2526,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2352462</v>
+        <v>2589477</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>-0.03</t>
         </is>
       </c>
     </row>
@@ -2544,15 +2544,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2589477</v>
+        <v>2653255</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.71</t>
         </is>
       </c>
     </row>
@@ -2562,15 +2562,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2653255</v>
+        <v>2456157</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>10.73</t>
         </is>
       </c>
     </row>
@@ -2580,15 +2580,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2456157</v>
+        <v>1475512</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>10.73</t>
+          <t>-9.63</t>
         </is>
       </c>
     </row>
@@ -2598,15 +2598,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1475512</v>
+        <v>2168570</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-9.63</t>
+          <t>3.45</t>
         </is>
       </c>
     </row>
@@ -2616,15 +2616,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2168570</v>
+        <v>1914369</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>11.16</t>
         </is>
       </c>
     </row>
@@ -2634,15 +2634,15 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1914369</v>
+        <v>1889414</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>11.16</t>
+          <t>7.89</t>
         </is>
       </c>
     </row>
@@ -2652,15 +2652,15 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1889414</v>
+        <v>1874181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>2.31</t>
         </is>
       </c>
     </row>
@@ -2670,15 +2670,15 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1874181</v>
+        <v>1589544</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>-5.3</t>
         </is>
       </c>
     </row>
@@ -2688,15 +2688,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1589544</v>
+        <v>1789871</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-4.55</t>
         </is>
       </c>
     </row>
@@ -2706,15 +2706,15 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1789871</v>
+        <v>2060478</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-4.55</t>
+          <t>-12.04</t>
         </is>
       </c>
     </row>
@@ -2724,15 +2724,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2060478</v>
+        <v>2046840</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-12.04</t>
+          <t>-12.99</t>
         </is>
       </c>
     </row>
@@ -2742,15 +2742,15 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2046840</v>
+        <v>2173485</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-12.99</t>
+          <t>-16.06</t>
         </is>
       </c>
     </row>
@@ -2760,15 +2760,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2173485</v>
+        <v>2233108</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-16.06</t>
+          <t>-15.84</t>
         </is>
       </c>
     </row>
@@ -2778,15 +2778,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2233108</v>
+        <v>2021089</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-15.84</t>
+          <t>-17.71</t>
         </is>
       </c>
     </row>
@@ -2796,15 +2796,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2021089</v>
+        <v>1219497</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-17.71</t>
+          <t>-17.35</t>
         </is>
       </c>
     </row>
@@ -2814,15 +2814,15 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1219497</v>
+        <v>2019443</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-17.35</t>
+          <t>-6.88</t>
         </is>
       </c>
     </row>
@@ -2832,15 +2832,15 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2019443</v>
+        <v>1574877</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-6.88</t>
+          <t>-17.73</t>
         </is>
       </c>
     </row>
@@ -2850,15 +2850,15 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1574877</v>
+        <v>1561172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-17.73</t>
+          <t>-17.37</t>
         </is>
       </c>
     </row>
@@ -2868,15 +2868,15 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1561172</v>
+        <v>1727910</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-17.37</t>
+          <t>-7.8</t>
         </is>
       </c>
     </row>
@@ -2886,15 +2886,15 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1727910</v>
+        <v>1527912</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-7.8</t>
+          <t>-3.88</t>
         </is>
       </c>
     </row>
@@ -2904,15 +2904,15 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1527912</v>
+        <v>1652908</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-3.88</t>
+          <t>-7.65</t>
         </is>
       </c>
     </row>
@@ -2922,15 +2922,15 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1652908</v>
+        <v>1930637</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-7.65</t>
+          <t>-6.3</t>
         </is>
       </c>
     </row>
@@ -2940,15 +2940,15 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1930637</v>
+        <v>1927669</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-6.3</t>
+          <t>-5.82</t>
         </is>
       </c>
     </row>
@@ -2958,15 +2958,15 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1927669</v>
+        <v>2056669</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-5.82</t>
+          <t>-5.37</t>
         </is>
       </c>
     </row>
@@ -2976,15 +2976,15 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2056669</v>
+        <v>2213089</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-5.37</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -2994,15 +2994,15 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2213089</v>
+        <v>1696520</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-16.06</t>
         </is>
       </c>
     </row>
@@ -3012,15 +3012,15 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1696520</v>
+        <v>216481</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-16.06</t>
+          <t>-82.25</t>
         </is>
       </c>
     </row>
@@ -3030,15 +3030,15 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>216481</v>
+        <v>1039532</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-82.25</t>
+          <t>-48.52</t>
         </is>
       </c>
     </row>
@@ -3048,15 +3048,15 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1039532</v>
+        <v>1536600</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-48.52</t>
+          <t>-2.43</t>
         </is>
       </c>
     </row>
@@ -3066,15 +3066,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1536600</v>
+        <v>1673900</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-2.43</t>
+          <t>7.22</t>
         </is>
       </c>
     </row>
@@ -3084,15 +3084,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1673900</v>
+        <v>1720593</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>-0.42</t>
         </is>
       </c>
     </row>
@@ -3102,15 +3102,15 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1720593</v>
+        <v>1664826</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>8.96</t>
         </is>
       </c>
     </row>
@@ -3120,15 +3120,15 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1664826</v>
+        <v>1754600</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>6.15</t>
         </is>
       </c>
     </row>
@@ -3138,15 +3138,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1754600</v>
+        <v>2075889</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>7.52</t>
         </is>
       </c>
     </row>
@@ -3156,15 +3156,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2075889</v>
+        <v>2300447</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>19.34</t>
         </is>
       </c>
     </row>
@@ -3174,15 +3174,15 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2300447</v>
+        <v>2098448</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>19.34</t>
+          <t>2.03</t>
         </is>
       </c>
     </row>
@@ -3192,15 +3192,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2098448</v>
+        <v>2285751</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -3210,15 +3210,15 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2285751</v>
+        <v>2358372</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>39.01</t>
         </is>
       </c>
     </row>
@@ -3228,15 +3228,15 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2358372</v>
+        <v>1148130</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>39.01</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -3246,15 +3246,15 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1148130</v>
+        <v>1914414</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>84.16</t>
         </is>
       </c>
     </row>
@@ -3264,15 +3264,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1914414</v>
+        <v>1746754</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>84.16</t>
+          <t>13.68</t>
         </is>
       </c>
     </row>
@@ -3282,15 +3282,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1746754</v>
+        <v>1642018</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>13.68</t>
+          <t>-1.9</t>
         </is>
       </c>
     </row>
@@ -3300,15 +3300,15 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1642018</v>
+        <v>1553528</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-9.71</t>
         </is>
       </c>
     </row>
@@ -3318,15 +3318,15 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1553528</v>
+        <v>1543474</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-9.71</t>
+          <t>-7.29</t>
         </is>
       </c>
     </row>
@@ -3336,15 +3336,15 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1543474</v>
+        <v>1543903</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-7.29</t>
+          <t>-12.01</t>
         </is>
       </c>
     </row>
@@ -3354,15 +3354,15 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1543903</v>
+        <v>1737510</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-12.01</t>
+          <t>-16.3</t>
         </is>
       </c>
     </row>
@@ -3372,15 +3372,15 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1737510</v>
+        <v>1990339</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-16.3</t>
+          <t>-13.48</t>
         </is>
       </c>
     </row>
@@ -3390,15 +3390,15 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1990339</v>
+        <v>2175564</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-13.48</t>
+          <t>3.67</t>
         </is>
       </c>
     </row>
@@ -3408,15 +3408,15 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2175564</v>
+        <v>2398523</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.93</t>
         </is>
       </c>
     </row>
@@ -3426,15 +3426,15 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2398523</v>
+        <v>2140050</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>-9.26</t>
         </is>
       </c>
     </row>
@@ -3444,15 +3444,15 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2140050</v>
+        <v>1451381</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-9.26</t>
+          <t>26.41</t>
         </is>
       </c>
     </row>
@@ -3462,15 +3462,15 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1451381</v>
+        <v>1819813</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>-4.94</t>
         </is>
       </c>
     </row>
@@ -3480,15 +3480,15 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1819813</v>
+        <v>942539</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-4.94</t>
+          <t>-46.04</t>
         </is>
       </c>
     </row>
@@ -3498,15 +3498,15 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>942539</v>
+        <v>1577056</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-46.04</t>
+          <t>-3.96</t>
         </is>
       </c>
     </row>
@@ -3516,15 +3516,15 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1577056</v>
+        <v>2165958</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-3.96</t>
+          <t>39.42</t>
         </is>
       </c>
     </row>
@@ -3534,15 +3534,15 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2165958</v>
+        <v>2125896</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>39.42</t>
+          <t>37.73</t>
         </is>
       </c>
     </row>
@@ -3552,15 +3552,15 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2125896</v>
+        <v>2219832</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>37.73</t>
+          <t>43.78</t>
         </is>
       </c>
     </row>
@@ -3570,15 +3570,15 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2219832</v>
+        <v>2275494</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>43.78</t>
+          <t>30.96</t>
         </is>
       </c>
     </row>
@@ -3588,15 +3588,15 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2275494</v>
+        <v>2172374</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>9.15</t>
         </is>
       </c>
     </row>
@@ -3606,15 +3606,15 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2172374</v>
+        <v>2007402</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>-7.73</t>
         </is>
       </c>
     </row>
@@ -3624,15 +3624,15 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2007402</v>
+        <v>2190865</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-7.73</t>
+          <t>-8.66</t>
         </is>
       </c>
     </row>
@@ -3642,15 +3642,15 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2190865</v>
+        <v>1295097</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-8.66</t>
+          <t>-39.48</t>
         </is>
       </c>
     </row>
@@ -3660,15 +3660,15 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1295097</v>
+        <v>1396501</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-39.48</t>
+          <t>-3.78</t>
         </is>
       </c>
     </row>
@@ -3678,15 +3678,15 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1396501</v>
+        <v>1593454</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-12.44</t>
         </is>
       </c>
     </row>
@@ -3696,15 +3696,15 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1593454</v>
+        <v>1635995</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-12.44</t>
+          <t>73.57</t>
         </is>
       </c>
     </row>
@@ -3714,15 +3714,15 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1635995</v>
+        <v>1685966</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>73.57</t>
+          <t>6.91</t>
         </is>
       </c>
     </row>
@@ -3732,15 +3732,15 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1685966</v>
+        <v>1894250</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>-12.54</t>
         </is>
       </c>
     </row>
@@ -3750,15 +3750,15 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1894250</v>
+        <v>1781580</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-12.54</t>
+          <t>-16.2</t>
         </is>
       </c>
     </row>
@@ -3768,15 +3768,15 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1781580</v>
+        <v>1922495</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-16.2</t>
+          <t>-13.39</t>
         </is>
       </c>
     </row>
@@ -3786,15 +3786,15 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1922495</v>
+        <v>2019445</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-13.39</t>
+          <t>-11.25</t>
         </is>
       </c>
     </row>
@@ -3804,15 +3804,15 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2019445</v>
+        <v>2032470</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-11.25</t>
+          <t>-6.44</t>
         </is>
       </c>
     </row>
@@ -3822,15 +3822,15 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2032470</v>
+        <v>2077155</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-6.44</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -3840,15 +3840,15 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2077155</v>
+        <v>2360143</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>7.73</t>
         </is>
       </c>
     </row>
@@ -3858,15 +3858,15 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2360143</v>
+        <v>2034527</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>57.09</t>
         </is>
       </c>
     </row>
@@ -3876,15 +3876,15 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2034527</v>
+        <v>1111541</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>57.09</t>
+          <t>-20.41</t>
         </is>
       </c>
     </row>
@@ -3894,15 +3894,15 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1111541</v>
+        <v>1691118</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-20.41</t>
+          <t>6.13</t>
         </is>
       </c>
     </row>
@@ -3912,15 +3912,15 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1691118</v>
+        <v>1541842</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>-5.76</t>
         </is>
       </c>
     </row>
@@ -3930,15 +3930,15 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1541842</v>
+        <v>1716443</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-5.76</t>
+          <t>1.81</t>
         </is>
       </c>
     </row>
@@ -3948,15 +3948,15 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1716443</v>
+        <v>1769462</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>-6.59</t>
         </is>
       </c>
     </row>
@@ -3966,15 +3966,15 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1769462</v>
+        <v>1725174</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-6.59</t>
+          <t>-3.17</t>
         </is>
       </c>
     </row>
@@ -3984,15 +3984,15 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1725174</v>
+        <v>1913002</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-3.17</t>
+          <t>-0.49</t>
         </is>
       </c>
     </row>
@@ -4002,15 +4002,15 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1913002</v>
+        <v>2116925</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>4.83</t>
         </is>
       </c>
     </row>
@@ -4020,15 +4020,15 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2116925</v>
+        <v>2271670</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>11.77</t>
         </is>
       </c>
     </row>
@@ -4038,15 +4038,15 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2271670</v>
+        <v>2438092</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>11.77</t>
+          <t>17.38</t>
         </is>
       </c>
     </row>
